--- a/Drawings/CARRIAGE_BOM.xlsx
+++ b/Drawings/CARRIAGE_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GitHub\SpindleCarriageForCNC\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D80A6C-091E-456E-980C-70DA8BCC1464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B4CA76-AFF0-411F-8CC7-A3713D01EAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -886,17 +886,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1154,30 +1143,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1224,6 +1189,26 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1235,704 +1220,663 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1940,20 +1884,7 @@
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2519,34 +2450,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S293"/>
+  <dimension ref="A1:Q293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="102" customWidth="1"/>
-    <col min="2" max="3" width="6.7109375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="0.28515625" style="40" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="40" customWidth="1"/>
-    <col min="7" max="7" width="73.28515625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="17" style="6" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="6.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="0.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="41" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="41" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="41"/>
+    <col min="15" max="15" width="6" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2554,3114 +2485,3059 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="21" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="21" t="s">
+      <c r="J3" s="214"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="J4" s="214"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="21" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="27" t="str">
+      <c r="G5" s="216" t="str">
         <f ca="1">MID(CELL("filename"),FIND("[",CELL("filename"))+1, FIND("]",CELL("filename"))-(FIND("[",CELL("filename"))+1))</f>
         <v>CARRIAGE_BOM.xlsx</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="212"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="22">
         <f ca="1">TODAY()</f>
-        <v>44899</v>
+        <v>44912</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="217">
         <v>1</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="194" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="196" t="s">
+      <c r="D7" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="198" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="199" t="s">
+      <c r="G7" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="200" t="s">
+      <c r="H7" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="201" t="s">
+      <c r="I7" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="201" t="s">
+      <c r="J7" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="202" t="s">
+      <c r="K7" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="203" t="s">
+      <c r="L7" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="209" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="O7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="155" t="s">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="157">
+      <c r="C8" s="28"/>
+      <c r="D8" s="194">
         <v>2</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="45" t="s">
+      <c r="I8" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="186">
+      <c r="K8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="145">
         <v>58.89</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="33">
         <f>L8*D8</f>
         <v>117.78</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="53" t="s">
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="187"/>
-      <c r="M9" s="55"/>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="72" t="s">
+      <c r="K9" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="146"/>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="205" t="s">
+      <c r="K10" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="190"/>
-      <c r="M10" s="74"/>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="148" t="s">
+      <c r="L10" s="149"/>
+      <c r="M10" s="60"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="152">
+      <c r="D11" s="178">
         <v>1</v>
       </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60" t="s">
+      <c r="E11" s="103"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="61" t="s">
+      <c r="K11" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="188">
+      <c r="L11" s="147">
         <v>62.17</v>
       </c>
-      <c r="M11" s="62">
-        <f t="shared" ref="M9:M39" si="0">L11*D11</f>
+      <c r="M11" s="48">
+        <f t="shared" ref="M11:M38" si="0">L11*D11</f>
         <v>62.17</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64" t="s">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="66"/>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="155" t="s">
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="52"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="157">
+      <c r="C13" s="28"/>
+      <c r="D13" s="194">
         <v>1</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="45" t="s">
+      <c r="I13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="186">
+      <c r="K13" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="145">
         <v>37.880000000000003</v>
       </c>
-      <c r="M13" s="47">
+      <c r="M13" s="33">
         <f t="shared" si="0"/>
         <v>37.880000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70" t="s">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="74"/>
-    </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="159" t="s">
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="60"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="163">
+      <c r="C15" s="61"/>
+      <c r="D15" s="191">
         <v>1</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="60" t="s">
+      <c r="E15" s="103"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="122" t="s">
+      <c r="H15" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="60" t="s">
+      <c r="I15" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="188">
+      <c r="K15" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="147">
         <v>120.14</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="48">
         <f t="shared" si="0"/>
         <v>120.14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="160"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81" t="s">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="189"/>
-      <c r="M16" s="66"/>
-    </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="84" t="s">
+      <c r="H16" s="68"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="52"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86">
+      <c r="C17" s="71"/>
+      <c r="D17" s="72">
         <v>2</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="88" t="s">
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="88" t="s">
+      <c r="I17" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="191">
+      <c r="K17" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="150">
         <v>4.7</v>
       </c>
-      <c r="M17" s="89">
+      <c r="M17" s="75">
         <f t="shared" si="0"/>
         <v>9.4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="90" t="s">
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92">
+      <c r="C18" s="77"/>
+      <c r="D18" s="78">
         <v>1</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="94" t="s">
+      <c r="E18" s="78"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="92" t="s">
+      <c r="H18" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="94" t="s">
+      <c r="I18" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="206" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="193">
+      <c r="K18" s="154" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="152">
         <v>4.5</v>
       </c>
-      <c r="M18" s="95">
+      <c r="M18" s="81">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="84" t="s">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86">
+      <c r="C19" s="71"/>
+      <c r="D19" s="72">
         <v>1</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="88" t="s">
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="88" t="s">
+      <c r="I19" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="88" t="s">
+      <c r="J19" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="96" t="s">
+      <c r="K19" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="191">
+      <c r="L19" s="150">
         <v>0.48</v>
       </c>
-      <c r="M19" s="89">
+      <c r="M19" s="75">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="O19" s="97"/>
-    </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="90" t="s">
+      <c r="O19" s="83"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92">
+      <c r="C20" s="77"/>
+      <c r="D20" s="78">
         <v>2</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="94" t="s">
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="92" t="s">
+      <c r="H20" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="94" t="s">
+      <c r="I20" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="206" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="193">
+      <c r="K20" s="154" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="152">
         <v>2.19</v>
       </c>
-      <c r="M20" s="95">
+      <c r="M20" s="81">
         <f t="shared" si="0"/>
         <v>4.38</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="84" t="s">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86">
+      <c r="C21" s="71"/>
+      <c r="D21" s="72">
         <v>2</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="88" t="s">
+      <c r="E21" s="72"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="88" t="s">
+      <c r="I21" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="88" t="s">
+      <c r="J21" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="125" t="s">
+      <c r="K21" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="191">
+      <c r="L21" s="150">
         <v>49</v>
       </c>
-      <c r="M21" s="89">
+      <c r="M21" s="75">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="90" t="s">
+    <row r="22" spans="1:17" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="84"/>
+      <c r="B22" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78">
         <v>4</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94" t="s">
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="92" t="s">
+      <c r="H22" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="94" t="s">
+      <c r="I22" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="94" t="s">
+      <c r="J22" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="K22" s="99" t="s">
+      <c r="K22" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="193">
+      <c r="L22" s="152">
         <v>25</v>
       </c>
-      <c r="M22" s="95">
+      <c r="M22" s="81">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="101" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="84" t="s">
+    <row r="23" spans="1:17" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="84"/>
+      <c r="B23" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86">
+      <c r="C23" s="71"/>
+      <c r="D23" s="72">
         <v>2</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88" t="s">
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="88" t="s">
+      <c r="I23" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="88" t="s">
+      <c r="J23" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="96" t="s">
+      <c r="K23" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="191">
+      <c r="L23" s="150">
         <v>37</v>
       </c>
-      <c r="M23" s="89">
+      <c r="M23" s="75">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="90" t="s">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92">
+      <c r="C24" s="77"/>
+      <c r="D24" s="78">
         <v>2</v>
       </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="94" t="s">
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="92" t="s">
+      <c r="H24" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="94" t="s">
+      <c r="I24" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="94" t="s">
+      <c r="J24" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="99" t="s">
+      <c r="K24" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="L24" s="193">
+      <c r="L24" s="152">
         <v>1.6</v>
       </c>
-      <c r="M24" s="95">
+      <c r="M24" s="81">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="O24" s="103"/>
-    </row>
-    <row r="25" spans="1:19" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="84" t="s">
+      <c r="O24" s="83"/>
+    </row>
+    <row r="25" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="87"/>
+      <c r="B25" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86">
+      <c r="C25" s="71"/>
+      <c r="D25" s="72">
         <v>1</v>
       </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="88" t="s">
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="86" t="s">
+      <c r="H25" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="88" t="s">
+      <c r="I25" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="88" t="s">
+      <c r="J25" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K25" s="96" t="s">
+      <c r="K25" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="191">
+      <c r="L25" s="150">
         <v>315</v>
       </c>
-      <c r="M25" s="89">
+      <c r="M25" s="75">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
       <c r="N25" s="1"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-    </row>
-    <row r="26" spans="1:19" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="90" t="s">
+      <c r="O25" s="88"/>
+      <c r="Q25" s="89"/>
+    </row>
+    <row r="26" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="87"/>
+      <c r="B26" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92">
+      <c r="C26" s="77"/>
+      <c r="D26" s="78">
         <v>5</v>
       </c>
-      <c r="E26" s="92"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="94" t="s">
+      <c r="E26" s="78"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="92" t="s">
+      <c r="H26" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="94" t="s">
+      <c r="I26" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="K26" s="206" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="193">
+      <c r="K26" s="154" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="152">
         <v>0.16</v>
       </c>
-      <c r="M26" s="95">
+      <c r="M26" s="81">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="N26" s="1"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-    </row>
-    <row r="27" spans="1:19" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="84" t="s">
+      <c r="O26" s="88"/>
+      <c r="Q26" s="89"/>
+    </row>
+    <row r="27" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="87"/>
+      <c r="B27" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86">
+      <c r="C27" s="71"/>
+      <c r="D27" s="72">
         <v>1</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="88" t="s">
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="88" t="s">
+      <c r="I27" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="88" t="s">
+      <c r="J27" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="96" t="s">
+      <c r="K27" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L27" s="191">
+      <c r="L27" s="150">
         <v>1.34</v>
       </c>
-      <c r="M27" s="89">
+      <c r="M27" s="75">
         <f t="shared" si="0"/>
         <v>1.34</v>
       </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="90" t="s">
+      <c r="O27" s="88"/>
+      <c r="Q27" s="89"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92">
+      <c r="C28" s="77"/>
+      <c r="D28" s="78">
         <v>1</v>
       </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94" t="s">
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="92" t="s">
+      <c r="H28" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="94" t="s">
+      <c r="I28" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="206" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="193">
+      <c r="K28" s="154" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="152">
         <v>0.12</v>
       </c>
-      <c r="M28" s="95">
+      <c r="M28" s="81">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="84" t="s">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86">
+      <c r="C29" s="71"/>
+      <c r="D29" s="72">
         <v>1</v>
       </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="88" t="s">
+      <c r="E29" s="72"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="86" t="s">
+      <c r="H29" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="88" t="s">
+      <c r="I29" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="K29" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="191">
+      <c r="K29" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="150">
         <v>7.93</v>
       </c>
-      <c r="M29" s="89">
+      <c r="M29" s="75">
         <f t="shared" si="0"/>
         <v>7.93</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="90" t="s">
+    <row r="30" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="87"/>
+      <c r="B30" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92">
+      <c r="C30" s="77"/>
+      <c r="D30" s="78">
         <v>1</v>
       </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94" t="s">
+      <c r="E30" s="78"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="94" t="s">
+      <c r="I30" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="94" t="s">
+      <c r="J30" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="K30" s="99" t="s">
+      <c r="K30" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="193">
+      <c r="L30" s="152">
         <v>314</v>
       </c>
-      <c r="M30" s="95">
+      <c r="M30" s="81">
         <f t="shared" si="0"/>
         <v>314</v>
       </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-    </row>
-    <row r="31" spans="1:19" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="84" t="s">
+      <c r="O30" s="88"/>
+      <c r="Q30" s="89"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86">
+      <c r="C31" s="71"/>
+      <c r="D31" s="72">
         <v>2</v>
       </c>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="88" t="s">
+      <c r="E31" s="72"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="86" t="s">
+      <c r="H31" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="88" t="s">
+      <c r="I31" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="88" t="s">
+      <c r="J31" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K31" s="96" t="s">
+      <c r="K31" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L31" s="191">
+      <c r="L31" s="150">
         <v>5.1100000000000003</v>
       </c>
-      <c r="M31" s="89">
+      <c r="M31" s="75">
         <f t="shared" si="0"/>
         <v>10.220000000000001</v>
       </c>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" s="109" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="90" t="s">
+    </row>
+    <row r="32" spans="1:17" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="90"/>
+      <c r="B32" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92">
+      <c r="C32" s="77"/>
+      <c r="D32" s="78">
         <v>1</v>
       </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="94" t="s">
+      <c r="E32" s="78"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="92" t="s">
+      <c r="H32" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="94" t="s">
+      <c r="I32" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="J32" s="94" t="s">
+      <c r="J32" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="K32" s="99" t="s">
+      <c r="K32" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="L32" s="193">
+      <c r="L32" s="152">
         <v>49</v>
       </c>
-      <c r="M32" s="95">
+      <c r="M32" s="81">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="O32" s="110"/>
-    </row>
-    <row r="33" spans="1:19" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="98"/>
-      <c r="B33" s="84" t="s">
+      <c r="O32" s="92"/>
+    </row>
+    <row r="33" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="84"/>
+      <c r="B33" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86">
+      <c r="C33" s="71"/>
+      <c r="D33" s="72">
         <v>1</v>
       </c>
-      <c r="E33" s="86"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="88" t="s">
+      <c r="E33" s="72"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="88" t="s">
+      <c r="I33" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="J33" s="88" t="s">
+      <c r="J33" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K33" s="96" t="s">
+      <c r="K33" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="191">
+      <c r="L33" s="150">
         <v>10</v>
       </c>
-      <c r="M33" s="89">
+      <c r="M33" s="75">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-    </row>
-    <row r="34" spans="1:19" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="102"/>
-      <c r="B34" s="90" t="s">
+      <c r="O33" s="88"/>
+      <c r="Q33" s="89"/>
+    </row>
+    <row r="34" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92">
+      <c r="C34" s="77"/>
+      <c r="D34" s="78">
         <v>4</v>
       </c>
-      <c r="E34" s="92"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="94" t="s">
+      <c r="E34" s="78"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="92" t="s">
+      <c r="H34" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="94" t="s">
+      <c r="I34" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="J34" s="94" t="s">
+      <c r="J34" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="K34" s="99" t="s">
+      <c r="K34" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="L34" s="193">
+      <c r="L34" s="152">
         <v>16</v>
       </c>
-      <c r="M34" s="95">
+      <c r="M34" s="81">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-    </row>
-    <row r="35" spans="1:19" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
-      <c r="B35" s="84" t="s">
+      <c r="O34" s="88"/>
+      <c r="Q34" s="89"/>
+    </row>
+    <row r="35" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="90"/>
+      <c r="B35" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86">
+      <c r="C35" s="71"/>
+      <c r="D35" s="72">
         <v>1</v>
       </c>
-      <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="88" t="s">
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="H35" s="86" t="s">
+      <c r="H35" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="88" t="s">
+      <c r="I35" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="K35" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" s="191">
+      <c r="K35" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="150">
         <v>3.05</v>
       </c>
-      <c r="M35" s="89">
+      <c r="M35" s="75">
         <f t="shared" si="0"/>
         <v>3.05</v>
       </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-    </row>
-    <row r="36" spans="1:19" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="102"/>
-      <c r="B36" s="90" t="s">
+      <c r="O35" s="88"/>
+      <c r="Q35" s="89"/>
+    </row>
+    <row r="36" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92">
+      <c r="C36" s="77"/>
+      <c r="D36" s="78">
         <v>1</v>
       </c>
-      <c r="E36" s="92"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94" t="s">
+      <c r="E36" s="78"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="92" t="s">
+      <c r="H36" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="94" t="s">
+      <c r="I36" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="206" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="193">
+      <c r="K36" s="154" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="152">
         <v>2.29</v>
       </c>
-      <c r="M36" s="95">
+      <c r="M36" s="81">
         <f t="shared" si="0"/>
         <v>2.29</v>
       </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-    </row>
-    <row r="37" spans="1:19" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
-      <c r="B37" s="84" t="s">
+      <c r="O36" s="88"/>
+      <c r="Q36" s="89"/>
+    </row>
+    <row r="37" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="87"/>
+      <c r="B37" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86">
+      <c r="C37" s="71"/>
+      <c r="D37" s="72">
         <v>1</v>
       </c>
-      <c r="E37" s="86"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="88" t="s">
+      <c r="E37" s="72"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="86" t="s">
+      <c r="H37" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="88" t="s">
+      <c r="I37" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="J37" s="88" t="s">
+      <c r="J37" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K37" s="96" t="s">
+      <c r="K37" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="L37" s="191">
+      <c r="L37" s="150">
         <v>1</v>
       </c>
-      <c r="M37" s="89">
+      <c r="M37" s="75">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-    </row>
-    <row r="38" spans="1:19" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="102"/>
-      <c r="B38" s="159" t="s">
+      <c r="O37" s="88"/>
+      <c r="Q37" s="89"/>
+    </row>
+    <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="161" t="s">
+      <c r="C38" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="163">
+      <c r="D38" s="191">
         <v>1</v>
       </c>
-      <c r="E38" s="122"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="60" t="s">
+      <c r="E38" s="103"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="122" t="s">
+      <c r="H38" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="I38" s="60" t="s">
+      <c r="I38" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="J38" s="60" t="s">
+      <c r="J38" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K38" s="61" t="s">
+      <c r="K38" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="L38" s="188">
+      <c r="L38" s="147">
         <v>11.5</v>
       </c>
-      <c r="M38" s="62">
+      <c r="M38" s="48">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="105"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-    </row>
-    <row r="39" spans="1:19" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="102"/>
-      <c r="B39" s="160"/>
-      <c r="C39" s="162"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="64" t="s">
+      <c r="O38" s="88"/>
+      <c r="Q38" s="89"/>
+    </row>
+    <row r="39" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="H39" s="123"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="189"/>
-      <c r="M39" s="66"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="52"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="106"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-    </row>
-    <row r="40" spans="1:19" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="102"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="227" t="s">
+      <c r="O39" s="88"/>
+      <c r="Q39" s="89"/>
+    </row>
+    <row r="40" spans="1:17" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="160" t="s">
         <v>149</v>
       </c>
-      <c r="L40" s="231"/>
-      <c r="M40" s="230">
+      <c r="L40" s="163"/>
+      <c r="M40" s="162">
         <f>SUM(M8:M39)</f>
         <v>1422.1799999999998</v>
       </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-    </row>
-    <row r="41" spans="1:19" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="102"/>
-      <c r="B41" s="126" t="s">
+      <c r="O40" s="88"/>
+      <c r="Q40" s="89"/>
+    </row>
+    <row r="41" spans="1:17" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="106"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-    </row>
-    <row r="42" spans="1:19" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="102"/>
-      <c r="B42" s="155" t="s">
+      <c r="O41" s="88"/>
+      <c r="Q41" s="89"/>
+    </row>
+    <row r="42" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="211"/>
-      <c r="D42" s="207">
+      <c r="C42" s="183"/>
+      <c r="D42" s="176">
         <v>1</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="45" t="s">
+      <c r="E42" s="29"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J42" s="45" t="s">
+      <c r="I42" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K42" s="121" t="s">
-        <v>31</v>
-      </c>
-      <c r="L42" s="45">
+      <c r="K42" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="31">
         <v>93</v>
       </c>
-      <c r="M42" s="47">
-        <f t="shared" ref="M42:M49" si="1">L42*D42</f>
+      <c r="M42" s="33">
+        <f t="shared" ref="M42:M48" si="1">L42*D42</f>
         <v>93</v>
       </c>
       <c r="N42" s="1"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="156"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="216"/>
-      <c r="G43" s="56" t="s">
+      <c r="O42" s="88"/>
+      <c r="Q42" s="89"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="167"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="H43" s="217"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="218"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="58"/>
-    </row>
-    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="148" t="s">
+      <c r="H43" s="157"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="158"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="44"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="168" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="150"/>
-      <c r="D44" s="152">
+      <c r="C44" s="170"/>
+      <c r="D44" s="178">
         <v>1</v>
       </c>
-      <c r="E44" s="122"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="60" t="s">
+      <c r="E44" s="103"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="H44" s="122" t="s">
+      <c r="H44" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="60" t="s">
+      <c r="I44" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="K44" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="L44" s="60">
+      <c r="K44" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="46">
         <v>87.98</v>
       </c>
-      <c r="M44" s="62">
+      <c r="M44" s="48">
         <f t="shared" si="1"/>
         <v>87.98</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="149"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="173" t="s">
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="169"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="179"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="H45" s="82"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="174"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="66"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="212" t="s">
+      <c r="H45" s="68"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="52"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="210"/>
-      <c r="D46" s="207">
+      <c r="C46" s="172"/>
+      <c r="D46" s="176">
         <v>2</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="45" t="s">
+      <c r="E46" s="29"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I46" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J46" s="45" t="s">
+      <c r="I46" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K46" s="175" t="s">
-        <v>31</v>
-      </c>
-      <c r="L46" s="45">
+      <c r="K46" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="31">
         <v>5.97</v>
       </c>
-      <c r="M46" s="47">
+      <c r="M46" s="33">
         <f t="shared" si="1"/>
         <v>11.94</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="224"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="209"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="168" t="s">
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="175"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="H47" s="71"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="74"/>
-    </row>
-    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="219" t="s">
+      <c r="H47" s="57"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="60"/>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="220"/>
-      <c r="D48" s="208">
+      <c r="C48" s="185"/>
+      <c r="D48" s="181">
         <v>1</v>
       </c>
-      <c r="E48" s="176"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="178" t="s">
+      <c r="E48" s="135"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="176" t="s">
+      <c r="H48" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="I48" s="178" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="178" t="s">
+      <c r="I48" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="K48" s="179" t="s">
-        <v>31</v>
-      </c>
-      <c r="L48" s="178">
+      <c r="K48" s="138" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="137">
         <v>1.21</v>
       </c>
-      <c r="M48" s="62">
+      <c r="M48" s="48">
         <f t="shared" si="1"/>
         <v>1.21</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="221"/>
-      <c r="C49" s="222"/>
-      <c r="D49" s="223"/>
-      <c r="E49" s="180"/>
-      <c r="F49" s="181"/>
-      <c r="G49" s="182" t="s">
+    <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="165"/>
+      <c r="C49" s="186"/>
+      <c r="D49" s="182"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="H49" s="183"/>
-      <c r="I49" s="184"/>
-      <c r="J49" s="184"/>
-      <c r="K49" s="185"/>
-      <c r="L49" s="184"/>
-      <c r="M49" s="66"/>
-    </row>
-    <row r="50" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K50" s="227" t="s">
+      <c r="H49" s="142"/>
+      <c r="I49" s="143"/>
+      <c r="J49" s="143"/>
+      <c r="K49" s="144"/>
+      <c r="L49" s="143"/>
+      <c r="M49" s="52"/>
+    </row>
+    <row r="50" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="160" t="s">
         <v>149</v>
       </c>
-      <c r="L50" s="228"/>
-      <c r="M50" s="230">
+      <c r="L50" s="161"/>
+      <c r="M50" s="162">
         <f>SUM(M42:M49)</f>
         <v>194.13000000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="112" t="s">
+    <row r="51" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="112"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="114"/>
-    </row>
-    <row r="52" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="84" t="s">
+      <c r="C51" s="94"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="96"/>
+    </row>
+    <row r="52" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="127"/>
-      <c r="D52" s="128">
+      <c r="C52" s="108"/>
+      <c r="D52" s="72">
         <v>1</v>
       </c>
-      <c r="E52" s="128"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129" t="s">
+      <c r="E52" s="72"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="130" t="s">
+      <c r="H52" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="I52" s="129" t="s">
+      <c r="I52" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="J52" s="129" t="s">
+      <c r="J52" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="K52" s="131" t="s">
+      <c r="K52" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="L52" s="191">
+      <c r="L52" s="150">
         <v>0.23</v>
       </c>
-      <c r="M52" s="89">
+      <c r="M52" s="75">
         <f t="shared" ref="M52:M72" si="2">L52*D52</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="132" t="s">
+    <row r="53" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="133"/>
-      <c r="D53" s="134">
+      <c r="C53" s="113"/>
+      <c r="D53" s="114">
         <v>6</v>
       </c>
-      <c r="E53" s="134"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135" t="s">
+      <c r="E53" s="114"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="H53" s="136" t="s">
+      <c r="H53" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="I53" s="135" t="s">
+      <c r="I53" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="135" t="s">
+      <c r="J53" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="K53" s="137" t="s">
+      <c r="K53" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="L53" s="226">
+      <c r="L53" s="159">
         <v>0.65</v>
       </c>
-      <c r="M53" s="95">
+      <c r="M53" s="81">
         <f t="shared" si="2"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="84" t="s">
+    <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="127"/>
-      <c r="D54" s="128">
+      <c r="C54" s="108"/>
+      <c r="D54" s="72">
         <v>4</v>
       </c>
-      <c r="E54" s="128"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129" t="s">
+      <c r="E54" s="72"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="H54" s="130" t="s">
+      <c r="H54" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="I54" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="129" t="s">
+      <c r="I54" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="K54" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="L54" s="191">
+      <c r="K54" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" s="150">
         <v>1.29</v>
       </c>
-      <c r="M54" s="89">
+      <c r="M54" s="75">
         <f t="shared" si="2"/>
         <v>5.16</v>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="132" t="s">
+    <row r="55" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="133"/>
-      <c r="D55" s="134">
+      <c r="C55" s="113"/>
+      <c r="D55" s="114">
         <v>22</v>
       </c>
-      <c r="E55" s="134"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="135" t="s">
+      <c r="E55" s="114"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="136" t="s">
+      <c r="H55" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="I55" s="135" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="135" t="s">
+      <c r="I55" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="K55" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="226">
+      <c r="K55" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="159">
         <v>1.6</v>
       </c>
-      <c r="M55" s="95">
+      <c r="M55" s="81">
         <f t="shared" si="2"/>
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B56" s="116" t="s">
+    <row r="56" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B56" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="117"/>
-      <c r="D56" s="118">
+      <c r="C56" s="99"/>
+      <c r="D56" s="29">
         <v>6</v>
       </c>
-      <c r="E56" s="118"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119" t="s">
+      <c r="E56" s="29"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="H56" s="120" t="s">
+      <c r="H56" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="I56" s="119" t="s">
+      <c r="I56" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="J56" s="119" t="s">
+      <c r="J56" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="K56" s="121" t="s">
+      <c r="K56" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="L56" s="186">
+      <c r="L56" s="145">
         <v>3.63</v>
       </c>
-      <c r="M56" s="47">
+      <c r="M56" s="33">
         <f t="shared" si="2"/>
         <v>21.78</v>
       </c>
-      <c r="N56" s="41"/>
-    </row>
-    <row r="57" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="138"/>
-      <c r="C57" s="139"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="141" t="s">
-        <v>31</v>
-      </c>
-      <c r="J57" s="141" t="s">
+    </row>
+    <row r="57" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="118"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="K57" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" s="190"/>
-      <c r="M57" s="74"/>
-    </row>
-    <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="132" t="s">
+      <c r="K57" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="149"/>
+      <c r="M57" s="60"/>
+    </row>
+    <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="133"/>
-      <c r="D58" s="134">
+      <c r="C58" s="113"/>
+      <c r="D58" s="114">
         <v>4</v>
       </c>
-      <c r="E58" s="134"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135" t="s">
+      <c r="E58" s="114"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="136" t="s">
+      <c r="H58" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="I58" s="135" t="s">
-        <v>31</v>
-      </c>
-      <c r="J58" s="135" t="s">
+      <c r="I58" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="K58" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="226">
+      <c r="K58" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="159">
         <v>0.73</v>
       </c>
-      <c r="M58" s="95">
+      <c r="M58" s="81">
         <f t="shared" si="2"/>
         <v>2.92</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="84" t="s">
+    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="127"/>
-      <c r="D59" s="128">
+      <c r="C59" s="108"/>
+      <c r="D59" s="72">
         <v>1</v>
       </c>
-      <c r="E59" s="128"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129" t="s">
+      <c r="E59" s="72"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="H59" s="130" t="s">
+      <c r="H59" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="I59" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="J59" s="129" t="s">
+      <c r="I59" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="K59" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="L59" s="191">
+      <c r="K59" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="150">
         <v>3.1619999999999999</v>
       </c>
-      <c r="M59" s="89">
+      <c r="M59" s="75">
         <f t="shared" si="2"/>
         <v>3.1619999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="132" t="s">
+    <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="133"/>
-      <c r="D60" s="134">
+      <c r="C60" s="113"/>
+      <c r="D60" s="114">
         <v>4</v>
       </c>
-      <c r="E60" s="134"/>
-      <c r="F60" s="135"/>
-      <c r="G60" s="135" t="s">
+      <c r="E60" s="114"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="H60" s="136" t="s">
+      <c r="H60" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="135" t="s">
-        <v>31</v>
-      </c>
-      <c r="J60" s="135" t="s">
+      <c r="I60" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="K60" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="L60" s="226">
+      <c r="K60" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" s="159">
         <v>2.65</v>
       </c>
-      <c r="M60" s="95">
+      <c r="M60" s="81">
         <f t="shared" si="2"/>
         <v>10.6</v>
       </c>
     </row>
-    <row r="61" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="84" t="s">
+    <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="127"/>
-      <c r="D61" s="128">
+      <c r="C61" s="108"/>
+      <c r="D61" s="72">
         <v>4</v>
       </c>
-      <c r="E61" s="128"/>
-      <c r="F61" s="129"/>
-      <c r="G61" s="129" t="s">
+      <c r="E61" s="72"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="H61" s="130" t="s">
+      <c r="H61" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="I61" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="J61" s="129" t="s">
+      <c r="I61" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="K61" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="L61" s="191">
+      <c r="K61" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="150">
         <v>2.65</v>
       </c>
-      <c r="M61" s="89">
+      <c r="M61" s="75">
         <f t="shared" si="2"/>
         <v>10.6</v>
       </c>
     </row>
-    <row r="62" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="132" t="s">
+    <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="133"/>
-      <c r="D62" s="134">
+      <c r="C62" s="113"/>
+      <c r="D62" s="114">
         <v>17</v>
       </c>
-      <c r="E62" s="134"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135" t="s">
+      <c r="E62" s="114"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="136" t="s">
+      <c r="H62" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="I62" s="135" t="s">
-        <v>31</v>
-      </c>
-      <c r="J62" s="135" t="s">
+      <c r="I62" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="K62" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="L62" s="226">
+      <c r="K62" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="159">
         <v>0.44</v>
       </c>
-      <c r="M62" s="95">
+      <c r="M62" s="81">
         <f t="shared" si="2"/>
         <v>7.48</v>
       </c>
     </row>
-    <row r="63" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="84" t="s">
+    <row r="63" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="127"/>
-      <c r="D63" s="128">
+      <c r="C63" s="108"/>
+      <c r="D63" s="72">
         <v>4</v>
       </c>
-      <c r="E63" s="128"/>
-      <c r="F63" s="129"/>
-      <c r="G63" s="129" t="s">
+      <c r="E63" s="72"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H63" s="130" t="s">
+      <c r="H63" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="I63" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="J63" s="129" t="s">
+      <c r="I63" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="K63" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="L63" s="191">
+      <c r="K63" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="150">
         <v>0.3</v>
       </c>
-      <c r="M63" s="89">
+      <c r="M63" s="75">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="64" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="132" t="s">
+    <row r="64" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="133"/>
-      <c r="D64" s="134">
+      <c r="C64" s="113"/>
+      <c r="D64" s="114">
         <v>7</v>
       </c>
-      <c r="E64" s="134"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135" t="s">
+      <c r="E64" s="114"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="H64" s="136" t="s">
+      <c r="H64" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="135" t="s">
-        <v>31</v>
-      </c>
-      <c r="J64" s="135" t="s">
+      <c r="I64" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="K64" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="L64" s="226">
+      <c r="K64" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="159">
         <v>0.12</v>
       </c>
-      <c r="M64" s="95">
+      <c r="M64" s="81">
         <f t="shared" si="2"/>
         <v>0.84</v>
       </c>
     </row>
     <row r="65" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="84" t="s">
+      <c r="B65" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="127"/>
-      <c r="D65" s="128">
+      <c r="C65" s="108"/>
+      <c r="D65" s="72">
         <v>2</v>
       </c>
-      <c r="E65" s="128"/>
-      <c r="F65" s="129"/>
-      <c r="G65" s="129" t="s">
+      <c r="E65" s="72"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="H65" s="130" t="s">
+      <c r="H65" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="I65" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="J65" s="129" t="s">
+      <c r="I65" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="K65" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="L65" s="191">
+      <c r="K65" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="150">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M65" s="89">
+      <c r="M65" s="75">
         <f t="shared" si="2"/>
         <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="66" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="132" t="s">
+      <c r="B66" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="133"/>
-      <c r="D66" s="134">
+      <c r="C66" s="113"/>
+      <c r="D66" s="114">
         <v>2</v>
       </c>
-      <c r="E66" s="134"/>
-      <c r="F66" s="135"/>
-      <c r="G66" s="135" t="s">
+      <c r="E66" s="114"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="H66" s="136" t="s">
+      <c r="H66" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="I66" s="135" t="s">
-        <v>31</v>
-      </c>
-      <c r="J66" s="135" t="s">
+      <c r="I66" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="K66" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="L66" s="226">
+      <c r="K66" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" s="159">
         <v>0.7</v>
       </c>
-      <c r="M66" s="95">
+      <c r="M66" s="81">
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
     </row>
     <row r="67" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="127"/>
-      <c r="D67" s="128">
+      <c r="C67" s="108"/>
+      <c r="D67" s="72">
         <v>4</v>
       </c>
-      <c r="E67" s="128"/>
-      <c r="F67" s="129"/>
-      <c r="G67" s="129" t="s">
+      <c r="E67" s="72"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="H67" s="130" t="s">
+      <c r="H67" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="I67" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="J67" s="129" t="s">
+      <c r="I67" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J67" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="L67" s="191">
+      <c r="K67" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="150">
         <v>2.9</v>
       </c>
-      <c r="M67" s="89">
+      <c r="M67" s="75">
         <f t="shared" si="2"/>
         <v>11.6</v>
       </c>
     </row>
     <row r="68" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="132" t="s">
+      <c r="B68" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="136"/>
-      <c r="D68" s="143">
+      <c r="C68" s="116"/>
+      <c r="D68" s="114">
         <v>3</v>
       </c>
-      <c r="E68" s="143"/>
-      <c r="F68" s="144"/>
-      <c r="G68" s="144" t="s">
+      <c r="E68" s="114"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="H68" s="136" t="s">
+      <c r="H68" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="I68" s="135" t="s">
-        <v>31</v>
-      </c>
-      <c r="J68" s="144" t="s">
+      <c r="I68" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="K68" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="L68" s="226">
+      <c r="K68" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" s="159">
         <v>0.6</v>
       </c>
-      <c r="M68" s="95">
+      <c r="M68" s="81">
         <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="69" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="84" t="s">
+      <c r="B69" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="130"/>
-      <c r="D69" s="86">
+      <c r="C69" s="110"/>
+      <c r="D69" s="72">
         <v>3</v>
       </c>
-      <c r="E69" s="86"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88" t="s">
+      <c r="E69" s="72"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="H69" s="130" t="s">
+      <c r="H69" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="I69" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="J69" s="88" t="s">
+      <c r="I69" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="K69" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="L69" s="191">
+      <c r="K69" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" s="150">
         <v>0.47</v>
       </c>
-      <c r="M69" s="89">
+      <c r="M69" s="75">
         <f t="shared" si="2"/>
         <v>1.41</v>
       </c>
     </row>
     <row r="70" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="132" t="s">
+      <c r="B70" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="136"/>
-      <c r="D70" s="143">
+      <c r="C70" s="116"/>
+      <c r="D70" s="114">
         <v>4</v>
       </c>
-      <c r="E70" s="143"/>
-      <c r="F70" s="144"/>
-      <c r="G70" s="144" t="s">
+      <c r="E70" s="114"/>
+      <c r="F70" s="122"/>
+      <c r="G70" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="H70" s="136" t="s">
+      <c r="H70" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="I70" s="135" t="s">
-        <v>31</v>
-      </c>
-      <c r="J70" s="144" t="s">
+      <c r="I70" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="K70" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="L70" s="226">
+      <c r="K70" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" s="159">
         <v>0.53</v>
       </c>
-      <c r="M70" s="95">
+      <c r="M70" s="81">
         <f t="shared" si="2"/>
         <v>2.12</v>
       </c>
     </row>
     <row r="71" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="130"/>
-      <c r="D71" s="86">
+      <c r="C71" s="110"/>
+      <c r="D71" s="72">
         <v>4</v>
       </c>
-      <c r="E71" s="86"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88" t="s">
+      <c r="E71" s="72"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="H71" s="86" t="s">
+      <c r="H71" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="I71" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="J71" s="88" t="s">
+      <c r="I71" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="K71" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="L71" s="191">
+      <c r="K71" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="150">
         <v>1.27</v>
       </c>
-      <c r="M71" s="89">
+      <c r="M71" s="75">
         <f t="shared" si="2"/>
         <v>5.08</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="78" t="s">
+      <c r="B72" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="145"/>
-      <c r="D72" s="111">
+      <c r="C72" s="123"/>
+      <c r="D72" s="93">
         <v>4</v>
       </c>
-      <c r="E72" s="111"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="124" t="s">
+      <c r="E72" s="93"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="H72" s="111" t="s">
+      <c r="H72" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="I72" s="146" t="s">
-        <v>31</v>
-      </c>
-      <c r="J72" s="124" t="s">
+      <c r="I72" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="K72" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="L72" s="192">
+      <c r="K72" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="151">
         <v>2.86</v>
       </c>
-      <c r="M72" s="95">
+      <c r="M72" s="81">
         <f t="shared" si="2"/>
         <v>11.44</v>
       </c>
     </row>
     <row r="73" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="F73" s="41"/>
-      <c r="K73" s="227" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="F73" s="1"/>
+      <c r="K73" s="160" t="s">
         <v>149</v>
       </c>
-      <c r="L73" s="228"/>
-      <c r="M73" s="230">
+      <c r="L73" s="161"/>
+      <c r="M73" s="162">
         <f>SUM(M52:M72)</f>
         <v>140.24200000000002</v>
       </c>
     </row>
     <row r="74" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="K75" s="227" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="K75" s="160" t="s">
         <v>150</v>
       </c>
-      <c r="L75" s="228"/>
-      <c r="M75" s="229">
+      <c r="L75" s="161"/>
+      <c r="M75" s="162">
         <f>M40+M50+M73</f>
         <v>1756.5519999999999</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B133" s="39"/>
-      <c r="C133" s="39"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B134" s="39"/>
-      <c r="C134" s="39"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B135" s="39"/>
-      <c r="C135" s="39"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B141" s="39"/>
-      <c r="C141" s="39"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B146" s="39"/>
-      <c r="C146" s="39"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B147" s="39"/>
-      <c r="C147" s="39"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B149" s="39"/>
-      <c r="C149" s="39"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B152" s="39"/>
-      <c r="C152" s="39"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B153" s="39"/>
-      <c r="C153" s="39"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B154" s="39"/>
-      <c r="C154" s="39"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B155" s="39"/>
-      <c r="C155" s="39"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B156" s="39"/>
-      <c r="C156" s="39"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B157" s="39"/>
-      <c r="C157" s="39"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B158" s="39"/>
-      <c r="C158" s="39"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B160" s="39"/>
-      <c r="C160" s="39"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B161" s="39"/>
-      <c r="C161" s="39"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B162" s="39"/>
-      <c r="C162" s="39"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B163" s="39"/>
-      <c r="C163" s="39"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B164" s="39"/>
-      <c r="C164" s="39"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B165" s="39"/>
-      <c r="C165" s="39"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B166" s="39"/>
-      <c r="C166" s="39"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B167" s="39"/>
-      <c r="C167" s="39"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B168" s="39"/>
-      <c r="C168" s="39"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B169" s="39"/>
-      <c r="C169" s="39"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B170" s="39"/>
-      <c r="C170" s="39"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B171" s="39"/>
-      <c r="C171" s="39"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B172" s="39"/>
-      <c r="C172" s="39"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B173" s="39"/>
-      <c r="C173" s="39"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B174" s="39"/>
-      <c r="C174" s="39"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B175" s="39"/>
-      <c r="C175" s="39"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B176" s="39"/>
-      <c r="C176" s="39"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B177" s="39"/>
-      <c r="C177" s="39"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B178" s="39"/>
-      <c r="C178" s="39"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B179" s="39"/>
-      <c r="C179" s="39"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B180" s="39"/>
-      <c r="C180" s="39"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B181" s="39"/>
-      <c r="C181" s="39"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B182" s="39"/>
-      <c r="C182" s="39"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B183" s="39"/>
-      <c r="C183" s="39"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B184" s="39"/>
-      <c r="C184" s="39"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B185" s="39"/>
-      <c r="C185" s="39"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B186" s="39"/>
-      <c r="C186" s="39"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B187" s="39"/>
-      <c r="C187" s="39"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B188" s="39"/>
-      <c r="C188" s="39"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B189" s="39"/>
-      <c r="C189" s="39"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B190" s="39"/>
-      <c r="C190" s="39"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B191" s="39"/>
-      <c r="C191" s="39"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B192" s="39"/>
-      <c r="C192" s="39"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B193" s="39"/>
-      <c r="C193" s="39"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B194" s="39"/>
-      <c r="C194" s="39"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B195" s="39"/>
-      <c r="C195" s="39"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B196" s="39"/>
-      <c r="C196" s="39"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B197" s="39"/>
-      <c r="C197" s="39"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B198" s="39"/>
-      <c r="C198" s="39"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B199" s="39"/>
-      <c r="C199" s="39"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B200" s="39"/>
-      <c r="C200" s="39"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B201" s="39"/>
-      <c r="C201" s="39"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B202" s="39"/>
-      <c r="C202" s="39"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B203" s="39"/>
-      <c r="C203" s="39"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B204" s="39"/>
-      <c r="C204" s="39"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B205" s="39"/>
-      <c r="C205" s="39"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B206" s="39"/>
-      <c r="C206" s="39"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B207" s="39"/>
-      <c r="C207" s="39"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B208" s="39"/>
-      <c r="C208" s="39"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B209" s="39"/>
-      <c r="C209" s="39"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B210" s="39"/>
-      <c r="C210" s="39"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B211" s="39"/>
-      <c r="C211" s="39"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B212" s="39"/>
-      <c r="C212" s="39"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B213" s="39"/>
-      <c r="C213" s="39"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B214" s="39"/>
-      <c r="C214" s="39"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B215" s="39"/>
-      <c r="C215" s="39"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B216" s="39"/>
-      <c r="C216" s="39"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B217" s="39"/>
-      <c r="C217" s="39"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B218" s="39"/>
-      <c r="C218" s="39"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B219" s="39"/>
-      <c r="C219" s="39"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B220" s="39"/>
-      <c r="C220" s="39"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B221" s="39"/>
-      <c r="C221" s="39"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B222" s="39"/>
-      <c r="C222" s="39"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B223" s="39"/>
-      <c r="C223" s="39"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B224" s="39"/>
-      <c r="C224" s="39"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B225" s="39"/>
-      <c r="C225" s="39"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B226" s="39"/>
-      <c r="C226" s="39"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B227" s="39"/>
-      <c r="C227" s="39"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B228" s="39"/>
-      <c r="C228" s="39"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B229" s="39"/>
-      <c r="C229" s="39"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B230" s="39"/>
-      <c r="C230" s="39"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B231" s="39"/>
-      <c r="C231" s="39"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B232" s="39"/>
-      <c r="C232" s="39"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B233" s="39"/>
-      <c r="C233" s="39"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B234" s="39"/>
-      <c r="C234" s="39"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B235" s="39"/>
-      <c r="C235" s="39"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B236" s="39"/>
-      <c r="C236" s="39"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B237" s="39"/>
-      <c r="C237" s="39"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B238" s="39"/>
-      <c r="C238" s="39"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B239" s="39"/>
-      <c r="C239" s="39"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B240" s="39"/>
-      <c r="C240" s="39"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B241" s="39"/>
-      <c r="C241" s="39"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B242" s="39"/>
-      <c r="C242" s="39"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B243" s="39"/>
-      <c r="C243" s="39"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B244" s="39"/>
-      <c r="C244" s="39"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B245" s="39"/>
-      <c r="C245" s="39"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B246" s="39"/>
-      <c r="C246" s="39"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B247" s="39"/>
-      <c r="C247" s="39"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B248" s="39"/>
-      <c r="C248" s="39"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B249" s="39"/>
-      <c r="C249" s="39"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B250" s="39"/>
-      <c r="C250" s="39"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B251" s="39"/>
-      <c r="C251" s="39"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B252" s="39"/>
-      <c r="C252" s="39"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B253" s="39"/>
-      <c r="C253" s="39"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B254" s="39"/>
-      <c r="C254" s="39"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B255" s="39"/>
-      <c r="C255" s="39"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B256" s="39"/>
-      <c r="C256" s="39"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B257" s="39"/>
-      <c r="C257" s="39"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B258" s="39"/>
-      <c r="C258" s="39"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B259" s="39"/>
-      <c r="C259" s="39"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B260" s="39"/>
-      <c r="C260" s="39"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B261" s="39"/>
-      <c r="C261" s="39"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B262" s="39"/>
-      <c r="C262" s="39"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B263" s="39"/>
-      <c r="C263" s="39"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B264" s="39"/>
-      <c r="C264" s="39"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B265" s="39"/>
-      <c r="C265" s="39"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B266" s="39"/>
-      <c r="C266" s="39"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B267" s="39"/>
-      <c r="C267" s="39"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B268" s="39"/>
-      <c r="C268" s="39"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B269" s="39"/>
-      <c r="C269" s="39"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B270" s="39"/>
-      <c r="C270" s="39"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="4"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B271" s="39"/>
-      <c r="C271" s="39"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B272" s="39"/>
-      <c r="C272" s="39"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B273" s="39"/>
-      <c r="C273" s="39"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B274" s="39"/>
-      <c r="C274" s="39"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B275" s="39"/>
-      <c r="C275" s="39"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B276" s="39"/>
-      <c r="C276" s="39"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B277" s="39"/>
-      <c r="C277" s="39"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B278" s="39"/>
-      <c r="C278" s="39"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B279" s="39"/>
-      <c r="C279" s="39"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B280" s="39"/>
-      <c r="C280" s="39"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B281" s="39"/>
-      <c r="C281" s="39"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="4"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B282" s="39"/>
-      <c r="C282" s="39"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B283" s="39"/>
-      <c r="C283" s="39"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="4"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B284" s="39"/>
-      <c r="C284" s="39"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="4"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B285" s="39"/>
-      <c r="C285" s="39"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B286" s="39"/>
-      <c r="C286" s="39"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B287" s="39"/>
-      <c r="C287" s="39"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B288" s="39"/>
-      <c r="C288" s="39"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B289" s="39"/>
-      <c r="C289" s="39"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B290" s="39"/>
-      <c r="C290" s="39"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B291" s="39"/>
-      <c r="C291" s="39"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B292" s="39"/>
-      <c r="C292" s="39"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B293" s="39"/>
-      <c r="C293" s="39"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:D39"/>
@@ -5669,13 +5545,18 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5735,7 +5616,7 @@
     <hyperlink ref="K36" r:id="rId54" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.118110236220472" right="0.196850393700787" top="0.6" bottom="0.43" header="0.33" footer="0.196850393700787"/>
+  <pageMargins left="0.118110236220472" right="0.196850393700787" top="0.16" bottom="0.25" header="0.11" footer="7.0000000000000007E-2"/>
   <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId55"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N&amp;R&amp;D  &amp;T</oddFooter>

--- a/Drawings/CARRIAGE_BOM.xlsx
+++ b/Drawings/CARRIAGE_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GitHub\SpindleCarriageForCNC\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B4CA76-AFF0-411F-8CC7-A3713D01EAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5437CE12-3CCD-40BF-BD71-4FF7AF1862FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="154">
   <si>
     <t>File</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>Spacer</t>
+  </si>
+  <si>
+    <t>91166A240</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1223,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1716,126 +1719,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1843,9 +1738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,29 +1746,134 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2453,8 +2450,8 @@
   <dimension ref="A1:Q293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R46" sqref="R46"/>
+      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2518,67 +2515,67 @@
     <row r="3" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212" t="s">
+      <c r="C3" s="173"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="213" t="s">
+      <c r="G3" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="212" t="s">
+      <c r="H3" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="213" t="s">
+      <c r="I3" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="214"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="212" t="s">
+      <c r="C4" s="173"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="212" t="s">
+      <c r="H4" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="214" t="s">
+      <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="214"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:17" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212" t="s">
+      <c r="C5" s="173"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="216" t="str">
+      <c r="G5" s="177" t="str">
         <f ca="1">MID(CELL("filename"),FIND("[",CELL("filename"))+1, FIND("]",CELL("filename"))-(FIND("[",CELL("filename"))+1))</f>
         <v>CARRIAGE_BOM.xlsx</v>
       </c>
-      <c r="H5" s="212"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="196"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:17" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2592,12 +2589,12 @@
       </c>
       <c r="G6" s="22">
         <f ca="1">TODAY()</f>
-        <v>44912</v>
+        <v>44926</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="217">
+      <c r="I6" s="178">
         <v>1</v>
       </c>
       <c r="J6" s="23"/>
@@ -2607,38 +2604,38 @@
     </row>
     <row r="7" spans="1:17" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="201" t="s">
+      <c r="C7" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="202" t="s">
+      <c r="D7" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="204" t="s">
+      <c r="E7" s="186"/>
+      <c r="F7" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="205" t="s">
+      <c r="G7" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="206" t="s">
+      <c r="H7" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="207" t="s">
+      <c r="I7" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="207" t="s">
+      <c r="J7" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="208" t="s">
+      <c r="K7" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="198" t="s">
+      <c r="L7" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="209" t="s">
+      <c r="M7" s="172" t="s">
         <v>148</v>
       </c>
       <c r="N7" s="26" t="s">
@@ -2653,11 +2650,11 @@
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="188" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="194">
+      <c r="D8" s="191">
         <v>2</v>
       </c>
       <c r="E8" s="29"/>
@@ -2687,9 +2684,9 @@
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="167"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="197"/>
+      <c r="D9" s="192"/>
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
@@ -2708,9 +2705,9 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="193"/>
+      <c r="B10" s="190"/>
       <c r="C10" s="53"/>
-      <c r="D10" s="195"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="104"/>
       <c r="F10" s="127"/>
       <c r="G10" s="127"/>
@@ -2729,13 +2726,13 @@
     </row>
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="178">
+      <c r="D11" s="183">
         <v>1</v>
       </c>
       <c r="E11" s="103"/>
@@ -2765,9 +2762,9 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="179"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="184"/>
       <c r="E12" s="104"/>
       <c r="F12" s="49"/>
       <c r="G12" s="50" t="s">
@@ -2782,11 +2779,11 @@
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="188" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="194">
+      <c r="D13" s="191">
         <v>1</v>
       </c>
       <c r="E13" s="29"/>
@@ -2816,9 +2813,9 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="193"/>
+      <c r="B14" s="190"/>
       <c r="C14" s="53"/>
-      <c r="D14" s="195"/>
+      <c r="D14" s="193"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
       <c r="G14" s="56" t="s">
@@ -2833,11 +2830,11 @@
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="194" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="191">
+      <c r="D15" s="198">
         <v>1</v>
       </c>
       <c r="E15" s="103"/>
@@ -2867,9 +2864,9 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="188"/>
+      <c r="B16" s="195"/>
       <c r="C16" s="65"/>
-      <c r="D16" s="192"/>
+      <c r="D16" s="199"/>
       <c r="E16" s="104"/>
       <c r="F16" s="66"/>
       <c r="G16" s="67" t="s">
@@ -3624,13 +3621,13 @@
     </row>
     <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="189" t="s">
+      <c r="C38" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="191">
+      <c r="D38" s="198">
         <v>1</v>
       </c>
       <c r="E38" s="103"/>
@@ -3663,9 +3660,9 @@
     </row>
     <row r="39" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="188"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="192"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="199"/>
       <c r="E39" s="104"/>
       <c r="F39" s="51"/>
       <c r="G39" s="50" t="s">
@@ -3726,11 +3723,11 @@
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="166" t="s">
+      <c r="B42" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="183"/>
-      <c r="D42" s="176">
+      <c r="C42" s="205"/>
+      <c r="D42" s="200">
         <v>1</v>
       </c>
       <c r="E42" s="29"/>
@@ -3762,9 +3759,9 @@
       <c r="Q42" s="89"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="167"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="177"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="201"/>
       <c r="E43" s="155"/>
       <c r="F43" s="156"/>
       <c r="G43" s="42" t="s">
@@ -3778,11 +3775,11 @@
       <c r="M43" s="44"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="168" t="s">
+      <c r="B44" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="170"/>
-      <c r="D44" s="178">
+      <c r="C44" s="181"/>
+      <c r="D44" s="183">
         <v>1</v>
       </c>
       <c r="E44" s="103"/>
@@ -3811,9 +3808,9 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="169"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="179"/>
+      <c r="B45" s="180"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="184"/>
       <c r="E45" s="104"/>
       <c r="F45" s="131"/>
       <c r="G45" s="132" t="s">
@@ -3827,11 +3824,11 @@
       <c r="M45" s="52"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="174" t="s">
+      <c r="B46" s="213" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="172"/>
-      <c r="D46" s="176">
+      <c r="C46" s="211"/>
+      <c r="D46" s="200">
         <v>2</v>
       </c>
       <c r="E46" s="29"/>
@@ -3860,9 +3857,9 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="175"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="180"/>
+      <c r="B47" s="214"/>
+      <c r="C47" s="212"/>
+      <c r="D47" s="202"/>
       <c r="E47" s="54"/>
       <c r="F47" s="120"/>
       <c r="G47" s="127" t="s">
@@ -3876,11 +3873,11 @@
       <c r="M47" s="60"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="164" t="s">
+      <c r="B48" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="185"/>
-      <c r="D48" s="181">
+      <c r="C48" s="207"/>
+      <c r="D48" s="203">
         <v>1</v>
       </c>
       <c r="E48" s="135"/>
@@ -3909,9 +3906,9 @@
       </c>
     </row>
     <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="165"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="182"/>
+      <c r="B49" s="210"/>
+      <c r="C49" s="208"/>
+      <c r="D49" s="204"/>
       <c r="E49" s="139"/>
       <c r="F49" s="140"/>
       <c r="G49" s="141" t="s">
@@ -4285,9 +4282,9 @@
         <v>31</v>
       </c>
       <c r="J62" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="K62" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="K62" s="215" t="s">
         <v>31</v>
       </c>
       <c r="L62" s="159">
@@ -5531,6 +5528,25 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -5538,25 +5554,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5571,49 +5568,49 @@
     <hyperlink ref="K59" r:id="rId9" xr:uid="{46A6ACDD-5760-4F58-85A8-0C3C5823AC23}"/>
     <hyperlink ref="K60" r:id="rId10" xr:uid="{400F5ABB-D45C-4276-826C-099F8FC092E6}"/>
     <hyperlink ref="K61" r:id="rId11" xr:uid="{426B6C2B-4D14-430D-A828-593410358401}"/>
-    <hyperlink ref="K62" r:id="rId12" xr:uid="{F5372B42-3D1B-4D7A-9DE8-A93A6186E094}"/>
-    <hyperlink ref="K63" r:id="rId13" xr:uid="{B6DDF454-5D93-4907-AA93-23FA58538DDA}"/>
-    <hyperlink ref="K64" r:id="rId14" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
-    <hyperlink ref="K65" r:id="rId15" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
-    <hyperlink ref="K66" r:id="rId16" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
-    <hyperlink ref="K67" r:id="rId17" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
-    <hyperlink ref="K68" r:id="rId18" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
-    <hyperlink ref="K69" r:id="rId19" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
-    <hyperlink ref="K70" r:id="rId20" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
-    <hyperlink ref="K71" r:id="rId21" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
-    <hyperlink ref="K72" r:id="rId22" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
-    <hyperlink ref="K42" r:id="rId23" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
-    <hyperlink ref="K44" r:id="rId24" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
-    <hyperlink ref="K46" r:id="rId25" xr:uid="{DAA40F40-7434-4808-A4F9-3B639CD993F7}"/>
-    <hyperlink ref="K48" r:id="rId26" xr:uid="{D9FCA77D-4B90-415B-B84D-4641EC4A3E95}"/>
-    <hyperlink ref="K8" r:id="rId27" xr:uid="{7B631EFD-FBB0-414A-ABB9-E4EF1004CB36}"/>
-    <hyperlink ref="K9" r:id="rId28" xr:uid="{E26C9157-F701-4202-8C8A-2A5490BB2432}"/>
-    <hyperlink ref="K10" r:id="rId29" xr:uid="{00C96614-58EA-43CF-95C1-B83D2DBFA964}"/>
-    <hyperlink ref="K11" r:id="rId30" xr:uid="{69041C88-AA34-4FA6-ADF0-D188106617E4}"/>
-    <hyperlink ref="K13" r:id="rId31" xr:uid="{EC6AA668-9E27-4C5F-9C67-22CCF4CE2EC3}"/>
-    <hyperlink ref="K15" r:id="rId32" xr:uid="{FA4FBE95-815A-46D3-8023-F45354A4911C}"/>
-    <hyperlink ref="K17" r:id="rId33" xr:uid="{0A57C64B-4505-4382-961D-ACBEB61E4DC2}"/>
-    <hyperlink ref="K18" r:id="rId34" xr:uid="{5C1AE8A6-E1D1-4B4F-AD8F-BDE58C8B81CF}"/>
-    <hyperlink ref="K19" r:id="rId35" xr:uid="{8623CD09-3F1E-4EBC-A650-32779CBF8D38}"/>
-    <hyperlink ref="K20" r:id="rId36" xr:uid="{DB096EE6-03C0-4DB4-A214-D696AD57396F}"/>
-    <hyperlink ref="K21" r:id="rId37" xr:uid="{B1AC8AF3-6E3A-423B-9174-1527BB58C5C2}"/>
-    <hyperlink ref="K22" r:id="rId38" xr:uid="{5E36A8A1-25D2-4E3E-ADEC-DA2531CAFA09}"/>
-    <hyperlink ref="K23" r:id="rId39" xr:uid="{35A8CCF9-C0AF-4511-9682-5999692A8AEB}"/>
-    <hyperlink ref="K24" r:id="rId40" xr:uid="{7949CEC1-883B-41C8-BF0B-A7E4681647A3}"/>
-    <hyperlink ref="K25" r:id="rId41" xr:uid="{2022AA65-1BFC-4D62-B7AC-2628D007EEF8}"/>
-    <hyperlink ref="K26" r:id="rId42" xr:uid="{DE069BA9-D0BB-41A7-961D-46D74CAC49FB}"/>
-    <hyperlink ref="K27" r:id="rId43" xr:uid="{5EEE64B8-1ED6-4F82-A486-79CA1718C483}"/>
-    <hyperlink ref="K28" r:id="rId44" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
-    <hyperlink ref="K29" r:id="rId45" xr:uid="{A2FB070D-61D5-46B8-B8A7-37BF3F461EB2}"/>
-    <hyperlink ref="K30" r:id="rId46" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
-    <hyperlink ref="K31" r:id="rId47" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
-    <hyperlink ref="K32" r:id="rId48" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
-    <hyperlink ref="K33" r:id="rId49" xr:uid="{D8200A4D-A38A-46D7-B851-F9BDD3021A4F}"/>
-    <hyperlink ref="K34" r:id="rId50" xr:uid="{8B2C429B-67C9-44BE-8D8C-EFA29E4C9720}"/>
-    <hyperlink ref="K37" r:id="rId51" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
-    <hyperlink ref="K38" r:id="rId52" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
-    <hyperlink ref="K35" r:id="rId53" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
-    <hyperlink ref="K36" r:id="rId54" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
+    <hyperlink ref="K63" r:id="rId12" xr:uid="{B6DDF454-5D93-4907-AA93-23FA58538DDA}"/>
+    <hyperlink ref="K64" r:id="rId13" xr:uid="{30DFA8A5-BAE3-4D93-A526-2D5C10EFC7B7}"/>
+    <hyperlink ref="K65" r:id="rId14" xr:uid="{482F56CD-484A-4D35-B757-4C3C363F80F9}"/>
+    <hyperlink ref="K66" r:id="rId15" xr:uid="{46BFDCA4-53BC-4374-8C36-04A3D2AC42CF}"/>
+    <hyperlink ref="K67" r:id="rId16" xr:uid="{C876B5E4-DD99-415E-BE54-89189FF5E6FC}"/>
+    <hyperlink ref="K68" r:id="rId17" xr:uid="{135D7A75-B72D-45C0-AF00-41E28319E6C1}"/>
+    <hyperlink ref="K69" r:id="rId18" xr:uid="{82E11980-7350-4761-9E17-6E6D6BCE0395}"/>
+    <hyperlink ref="K70" r:id="rId19" xr:uid="{1AC960AC-39EC-4992-BCD7-EEC86FCA5A16}"/>
+    <hyperlink ref="K71" r:id="rId20" xr:uid="{3B7B7419-C0C2-498D-B6F8-22DF509874F6}"/>
+    <hyperlink ref="K72" r:id="rId21" xr:uid="{5A0AA717-58DB-4B3F-AC2D-4A1755989E23}"/>
+    <hyperlink ref="K42" r:id="rId22" xr:uid="{69604BCE-9949-43F9-BD1D-6E70275EFDE5}"/>
+    <hyperlink ref="K44" r:id="rId23" xr:uid="{A741C20D-5DCE-4E9A-B813-A8113F54FB78}"/>
+    <hyperlink ref="K46" r:id="rId24" xr:uid="{DAA40F40-7434-4808-A4F9-3B639CD993F7}"/>
+    <hyperlink ref="K48" r:id="rId25" xr:uid="{D9FCA77D-4B90-415B-B84D-4641EC4A3E95}"/>
+    <hyperlink ref="K8" r:id="rId26" xr:uid="{7B631EFD-FBB0-414A-ABB9-E4EF1004CB36}"/>
+    <hyperlink ref="K9" r:id="rId27" xr:uid="{E26C9157-F701-4202-8C8A-2A5490BB2432}"/>
+    <hyperlink ref="K10" r:id="rId28" xr:uid="{00C96614-58EA-43CF-95C1-B83D2DBFA964}"/>
+    <hyperlink ref="K11" r:id="rId29" xr:uid="{69041C88-AA34-4FA6-ADF0-D188106617E4}"/>
+    <hyperlink ref="K13" r:id="rId30" xr:uid="{EC6AA668-9E27-4C5F-9C67-22CCF4CE2EC3}"/>
+    <hyperlink ref="K15" r:id="rId31" xr:uid="{FA4FBE95-815A-46D3-8023-F45354A4911C}"/>
+    <hyperlink ref="K17" r:id="rId32" xr:uid="{0A57C64B-4505-4382-961D-ACBEB61E4DC2}"/>
+    <hyperlink ref="K18" r:id="rId33" xr:uid="{5C1AE8A6-E1D1-4B4F-AD8F-BDE58C8B81CF}"/>
+    <hyperlink ref="K19" r:id="rId34" xr:uid="{8623CD09-3F1E-4EBC-A650-32779CBF8D38}"/>
+    <hyperlink ref="K20" r:id="rId35" xr:uid="{DB096EE6-03C0-4DB4-A214-D696AD57396F}"/>
+    <hyperlink ref="K21" r:id="rId36" xr:uid="{B1AC8AF3-6E3A-423B-9174-1527BB58C5C2}"/>
+    <hyperlink ref="K22" r:id="rId37" xr:uid="{5E36A8A1-25D2-4E3E-ADEC-DA2531CAFA09}"/>
+    <hyperlink ref="K23" r:id="rId38" xr:uid="{35A8CCF9-C0AF-4511-9682-5999692A8AEB}"/>
+    <hyperlink ref="K24" r:id="rId39" xr:uid="{7949CEC1-883B-41C8-BF0B-A7E4681647A3}"/>
+    <hyperlink ref="K25" r:id="rId40" xr:uid="{2022AA65-1BFC-4D62-B7AC-2628D007EEF8}"/>
+    <hyperlink ref="K26" r:id="rId41" xr:uid="{DE069BA9-D0BB-41A7-961D-46D74CAC49FB}"/>
+    <hyperlink ref="K27" r:id="rId42" xr:uid="{5EEE64B8-1ED6-4F82-A486-79CA1718C483}"/>
+    <hyperlink ref="K28" r:id="rId43" xr:uid="{3F035E23-B836-41AC-B7CC-D51436712003}"/>
+    <hyperlink ref="K29" r:id="rId44" xr:uid="{A2FB070D-61D5-46B8-B8A7-37BF3F461EB2}"/>
+    <hyperlink ref="K30" r:id="rId45" xr:uid="{EE76C52B-5407-4ACF-8E25-6A574C6486A9}"/>
+    <hyperlink ref="K31" r:id="rId46" xr:uid="{88447306-019B-4610-B22B-04DD2207EE96}"/>
+    <hyperlink ref="K32" r:id="rId47" xr:uid="{79AA3ED5-95C0-4A7C-BE2E-B54CD81FCDC3}"/>
+    <hyperlink ref="K33" r:id="rId48" xr:uid="{D8200A4D-A38A-46D7-B851-F9BDD3021A4F}"/>
+    <hyperlink ref="K34" r:id="rId49" xr:uid="{8B2C429B-67C9-44BE-8D8C-EFA29E4C9720}"/>
+    <hyperlink ref="K37" r:id="rId50" xr:uid="{D43C1AE5-2EC5-4FC3-A93C-32FEA5423FE2}"/>
+    <hyperlink ref="K38" r:id="rId51" xr:uid="{1E7DE689-AB9F-4D10-A672-1396E98738D5}"/>
+    <hyperlink ref="K35" r:id="rId52" xr:uid="{35ACFE45-5EC9-4D45-B080-718CB7702BA9}"/>
+    <hyperlink ref="K36" r:id="rId53" xr:uid="{5CF4A831-3068-4205-B766-546D8134DAB7}"/>
+    <hyperlink ref="K62" r:id="rId54" xr:uid="{590A3B84-D733-49E4-A644-61F0E138FCD4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.196850393700787" top="0.16" bottom="0.25" header="0.11" footer="7.0000000000000007E-2"/>
@@ -5650,7 +5647,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId59" name="Button 7">
+            <control shapeId="1031" r:id="rId59" name="AltiumMatBut">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!AltiumMan1ShowHide1" altText="Show/Hide ">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>

--- a/Drawings/CARRIAGE_BOM.xlsx
+++ b/Drawings/CARRIAGE_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\GitHub\SpindleCarriageForCNC\Drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5437CE12-3CCD-40BF-BD71-4FF7AF1862FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A5F1E0-9EA7-4499-8E18-0FA98577C979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,16 +23,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'arrangement-mat'!$A$1:$M$73</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -148,9 +138,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>Corner Bracket 40х40L</t>
   </si>
   <si>
     <t>AISI 1035 Steel (SS)</t>
@@ -581,6 +568,9 @@
   </si>
   <si>
     <t>91166A240</t>
+  </si>
+  <si>
+    <t>Corner Bracket 40х20L</t>
   </si>
 </sst>
 </file>
@@ -1764,116 +1754,116 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2450,8 +2440,8 @@
   <dimension ref="A1:Q293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R59" sqref="R59"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2572,8 +2562,8 @@
         <v>CARRIAGE_BOM.xlsx</v>
       </c>
       <c r="H5" s="174"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="17"/>
@@ -2589,7 +2579,7 @@
       </c>
       <c r="G6" s="22">
         <f ca="1">TODAY()</f>
-        <v>44926</v>
+        <v>44941</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>5</v>
@@ -2610,10 +2600,10 @@
       <c r="C7" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="185" t="s">
+      <c r="D7" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="186"/>
+      <c r="E7" s="213"/>
       <c r="F7" s="168" t="s">
         <v>4</v>
       </c>
@@ -2636,7 +2626,7 @@
         <v>30</v>
       </c>
       <c r="M7" s="172" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>33</v>
@@ -2650,26 +2640,26 @@
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="188" t="s">
-        <v>96</v>
+      <c r="B8" s="182" t="s">
+        <v>95</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="191">
+      <c r="D8" s="210">
         <v>2</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
       <c r="G8" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>98</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>31</v>
@@ -2684,9 +2674,9 @@
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="189"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="192"/>
+      <c r="D9" s="215"/>
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
@@ -2695,7 +2685,7 @@
         <v>31</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>31</v>
@@ -2705,52 +2695,52 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="190"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="53"/>
-      <c r="D10" s="193"/>
+      <c r="D10" s="211"/>
       <c r="E10" s="104"/>
       <c r="F10" s="127"/>
       <c r="G10" s="127"/>
       <c r="H10" s="127"/>
       <c r="I10" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="153" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L10" s="149"/>
       <c r="M10" s="60"/>
     </row>
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="179" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="181" t="s">
+      <c r="B11" s="184" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="183">
+      <c r="D11" s="194">
         <v>1</v>
       </c>
       <c r="E11" s="103"/>
       <c r="F11" s="45"/>
       <c r="G11" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K11" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="147">
         <v>62.17</v>
@@ -2762,13 +2752,13 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="184"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="195"/>
       <c r="E12" s="104"/>
       <c r="F12" s="49"/>
       <c r="G12" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -2779,11 +2769,11 @@
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="182" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="191">
+      <c r="D13" s="210">
         <v>1</v>
       </c>
       <c r="E13" s="29"/>
@@ -2792,7 +2782,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>31</v>
@@ -2813,13 +2803,13 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="190"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="53"/>
-      <c r="D14" s="193"/>
+      <c r="D14" s="211"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
       <c r="G14" s="56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" s="57"/>
       <c r="I14" s="58"/>
@@ -2830,11 +2820,11 @@
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="194" t="s">
+      <c r="B15" s="203" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="198">
+      <c r="D15" s="207">
         <v>1</v>
       </c>
       <c r="E15" s="103"/>
@@ -2843,7 +2833,7 @@
         <v>25</v>
       </c>
       <c r="H15" s="103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I15" s="46" t="s">
         <v>31</v>
@@ -2864,13 +2854,13 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="195"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="65"/>
-      <c r="D16" s="199"/>
+      <c r="D16" s="208"/>
       <c r="E16" s="104"/>
       <c r="F16" s="66"/>
       <c r="G16" s="67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="51"/>
@@ -2882,7 +2872,7 @@
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="72">
@@ -2891,16 +2881,16 @@
       <c r="E17" s="72"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="74" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K17" s="106" t="s">
         <v>31</v>
@@ -2916,7 +2906,7 @@
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="78">
@@ -2925,16 +2915,16 @@
       <c r="E18" s="78"/>
       <c r="F18" s="79"/>
       <c r="G18" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="78" t="s">
+      <c r="I18" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="80" t="s">
         <v>109</v>
-      </c>
-      <c r="I18" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="80" t="s">
-        <v>110</v>
       </c>
       <c r="K18" s="154" t="s">
         <v>31</v>
@@ -2950,7 +2940,7 @@
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="72">
@@ -2959,19 +2949,19 @@
       <c r="E19" s="72"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I19" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L19" s="150">
         <v>0.48</v>
@@ -2985,7 +2975,7 @@
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="77"/>
       <c r="D20" s="78">
@@ -2994,16 +2984,16 @@
       <c r="E20" s="78"/>
       <c r="F20" s="79"/>
       <c r="G20" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="80" t="s">
         <v>114</v>
-      </c>
-      <c r="H20" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="80" t="s">
-        <v>115</v>
       </c>
       <c r="K20" s="154" t="s">
         <v>31</v>
@@ -3019,7 +3009,7 @@
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="72">
@@ -3028,19 +3018,19 @@
       <c r="E21" s="72"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="72" t="s">
-        <v>38</v>
-      </c>
       <c r="I21" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="74" t="s">
-        <v>52</v>
-      </c>
       <c r="K21" s="106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="150">
         <v>49</v>
@@ -3053,7 +3043,7 @@
     <row r="22" spans="1:17" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84"/>
       <c r="B22" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="77"/>
       <c r="D22" s="78">
@@ -3062,19 +3052,19 @@
       <c r="E22" s="78"/>
       <c r="F22" s="79"/>
       <c r="G22" s="80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="78" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22" s="80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L22" s="152">
         <v>25</v>
@@ -3087,7 +3077,7 @@
     <row r="23" spans="1:17" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84"/>
       <c r="B23" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="72">
@@ -3096,19 +3086,19 @@
       <c r="E23" s="72"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="72" t="s">
         <v>27</v>
       </c>
       <c r="I23" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L23" s="150">
         <v>37</v>
@@ -3120,7 +3110,7 @@
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="78">
@@ -3129,19 +3119,19 @@
       <c r="E24" s="78"/>
       <c r="F24" s="79"/>
       <c r="G24" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="78" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J24" s="80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24" s="85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L24" s="152">
         <v>1.6</v>
@@ -3155,7 +3145,7 @@
     <row r="25" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="87"/>
       <c r="B25" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="72">
@@ -3164,19 +3154,19 @@
       <c r="E25" s="72"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25" s="72" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J25" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L25" s="150">
         <v>315</v>
@@ -3192,7 +3182,7 @@
     <row r="26" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="87"/>
       <c r="B26" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="78">
@@ -3201,16 +3191,16 @@
       <c r="E26" s="78"/>
       <c r="F26" s="79"/>
       <c r="G26" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="78" t="s">
+      <c r="I26" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="80" t="s">
         <v>119</v>
-      </c>
-      <c r="I26" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="80" t="s">
-        <v>120</v>
       </c>
       <c r="K26" s="154" t="s">
         <v>31</v>
@@ -3229,7 +3219,7 @@
     <row r="27" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
       <c r="B27" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="72">
@@ -3238,19 +3228,19 @@
       <c r="E27" s="72"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="72" t="s">
-        <v>122</v>
-      </c>
       <c r="I27" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J27" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K27" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="150">
         <v>1.34</v>
@@ -3265,7 +3255,7 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="78">
@@ -3274,16 +3264,16 @@
       <c r="E28" s="78"/>
       <c r="F28" s="79"/>
       <c r="G28" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="80" t="s">
         <v>123</v>
-      </c>
-      <c r="H28" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="80" t="s">
-        <v>124</v>
       </c>
       <c r="K28" s="154" t="s">
         <v>31</v>
@@ -3298,7 +3288,7 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="72">
@@ -3307,16 +3297,16 @@
       <c r="E29" s="72"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="72" t="s">
+      <c r="I29" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="74" t="s">
         <v>126</v>
-      </c>
-      <c r="I29" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="74" t="s">
-        <v>127</v>
       </c>
       <c r="K29" s="106" t="s">
         <v>31</v>
@@ -3332,7 +3322,7 @@
     <row r="30" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="87"/>
       <c r="B30" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="78">
@@ -3341,19 +3331,19 @@
       <c r="E30" s="78"/>
       <c r="F30" s="79"/>
       <c r="G30" s="80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30" s="78" t="s">
         <v>27</v>
       </c>
       <c r="I30" s="80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J30" s="80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L30" s="152">
         <v>314</v>
@@ -3368,7 +3358,7 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="72">
@@ -3377,19 +3367,19 @@
       <c r="E31" s="72"/>
       <c r="F31" s="73"/>
       <c r="G31" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H31" s="72" t="s">
         <v>27</v>
       </c>
       <c r="I31" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J31" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K31" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L31" s="150">
         <v>5.1100000000000003</v>
@@ -3402,7 +3392,7 @@
     <row r="32" spans="1:17" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
       <c r="B32" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="77"/>
       <c r="D32" s="78">
@@ -3411,19 +3401,19 @@
       <c r="E32" s="78"/>
       <c r="F32" s="79"/>
       <c r="G32" s="80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="78" t="s">
         <v>27</v>
       </c>
       <c r="I32" s="80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J32" s="80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L32" s="152">
         <v>49</v>
@@ -3437,7 +3427,7 @@
     <row r="33" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84"/>
       <c r="B33" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="72">
@@ -3446,19 +3436,19 @@
       <c r="E33" s="72"/>
       <c r="F33" s="73"/>
       <c r="G33" s="74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H33" s="72" t="s">
         <v>27</v>
       </c>
       <c r="I33" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J33" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K33" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33" s="150">
         <v>10</v>
@@ -3474,7 +3464,7 @@
     <row r="34" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="78">
@@ -3483,19 +3473,19 @@
       <c r="E34" s="78"/>
       <c r="F34" s="79"/>
       <c r="G34" s="80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H34" s="78" t="s">
         <v>27</v>
       </c>
       <c r="I34" s="80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J34" s="80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K34" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L34" s="152">
         <v>16</v>
@@ -3511,7 +3501,7 @@
     <row r="35" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="90"/>
       <c r="B35" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="72">
@@ -3520,7 +3510,7 @@
       <c r="E35" s="72"/>
       <c r="F35" s="73"/>
       <c r="G35" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H35" s="72" t="s">
         <v>27</v>
@@ -3529,7 +3519,7 @@
         <v>31</v>
       </c>
       <c r="J35" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" s="106" t="s">
         <v>31</v>
@@ -3548,7 +3538,7 @@
     <row r="36" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="78">
@@ -3557,7 +3547,7 @@
       <c r="E36" s="78"/>
       <c r="F36" s="79"/>
       <c r="G36" s="80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H36" s="78" t="s">
         <v>27</v>
@@ -3566,7 +3556,7 @@
         <v>31</v>
       </c>
       <c r="J36" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K36" s="154" t="s">
         <v>31</v>
@@ -3585,7 +3575,7 @@
     <row r="37" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87"/>
       <c r="B37" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="72">
@@ -3594,19 +3584,19 @@
       <c r="E37" s="72"/>
       <c r="F37" s="73"/>
       <c r="G37" s="74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H37" s="72" t="s">
         <v>27</v>
       </c>
       <c r="I37" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="82" t="s">
         <v>137</v>
-      </c>
-      <c r="J37" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="K37" s="82" t="s">
-        <v>138</v>
       </c>
       <c r="L37" s="150">
         <v>1</v>
@@ -3621,31 +3611,31 @@
     </row>
     <row r="38" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="194" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="196" t="s">
+      <c r="B38" s="203" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="207">
         <v>1</v>
       </c>
       <c r="E38" s="103"/>
       <c r="F38" s="62"/>
       <c r="G38" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="103" t="s">
-        <v>140</v>
-      </c>
       <c r="I38" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J38" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L38" s="147">
         <v>11.5</v>
@@ -3660,13 +3650,13 @@
     </row>
     <row r="39" spans="1:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="195"/>
-      <c r="C39" s="197"/>
-      <c r="D39" s="199"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="206"/>
+      <c r="D39" s="208"/>
       <c r="E39" s="104"/>
       <c r="F39" s="51"/>
       <c r="G39" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H39" s="104"/>
       <c r="I39" s="51"/>
@@ -3690,7 +3680,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L40" s="163"/>
       <c r="M40" s="162">
@@ -3704,7 +3694,7 @@
     <row r="41" spans="1:17" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="107" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
@@ -3723,26 +3713,26 @@
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="188" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="205"/>
-      <c r="D42" s="200">
+      <c r="B42" s="182" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="199"/>
+      <c r="D42" s="192">
         <v>1</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="126"/>
       <c r="G42" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>31</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42" s="102" t="s">
         <v>31</v>
@@ -3759,13 +3749,13 @@
       <c r="Q42" s="89"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="189"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="201"/>
+      <c r="B43" s="183"/>
+      <c r="C43" s="200"/>
+      <c r="D43" s="193"/>
       <c r="E43" s="155"/>
       <c r="F43" s="156"/>
       <c r="G43" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H43" s="157"/>
       <c r="I43" s="43"/>
@@ -3775,26 +3765,26 @@
       <c r="M43" s="44"/>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="179" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="181"/>
-      <c r="D44" s="183">
+      <c r="B44" s="184" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="186"/>
+      <c r="D44" s="194">
         <v>1</v>
       </c>
       <c r="E44" s="103"/>
       <c r="F44" s="129"/>
       <c r="G44" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H44" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I44" s="46" t="s">
         <v>31</v>
       </c>
       <c r="J44" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K44" s="130" t="s">
         <v>31</v>
@@ -3808,13 +3798,13 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="180"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="184"/>
+      <c r="B45" s="185"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="195"/>
       <c r="E45" s="104"/>
       <c r="F45" s="131"/>
       <c r="G45" s="132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H45" s="68"/>
       <c r="I45" s="51"/>
@@ -3824,26 +3814,26 @@
       <c r="M45" s="52"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="213" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="211"/>
-      <c r="D46" s="200">
+      <c r="B46" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="188"/>
+      <c r="D46" s="192">
         <v>2</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="126"/>
       <c r="G46" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I46" s="31" t="s">
         <v>31</v>
       </c>
       <c r="J46" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K46" s="134" t="s">
         <v>31</v>
@@ -3857,13 +3847,13 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="214"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="202"/>
+      <c r="B47" s="191"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="196"/>
       <c r="E47" s="54"/>
       <c r="F47" s="120"/>
       <c r="G47" s="127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H47" s="57"/>
       <c r="I47" s="58"/>
@@ -3873,26 +3863,26 @@
       <c r="M47" s="60"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="209" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="207"/>
-      <c r="D48" s="203">
+      <c r="B48" s="180" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="201"/>
+      <c r="D48" s="197">
         <v>1</v>
       </c>
       <c r="E48" s="135"/>
       <c r="F48" s="136"/>
       <c r="G48" s="137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H48" s="135" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I48" s="137" t="s">
         <v>31</v>
       </c>
       <c r="J48" s="137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K48" s="138" t="s">
         <v>31</v>
@@ -3906,13 +3896,13 @@
       </c>
     </row>
     <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="210"/>
-      <c r="C49" s="208"/>
-      <c r="D49" s="204"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="198"/>
       <c r="E49" s="139"/>
       <c r="F49" s="140"/>
       <c r="G49" s="141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H49" s="142"/>
       <c r="I49" s="143"/>
@@ -3923,7 +3913,7 @@
     </row>
     <row r="50" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K50" s="160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L50" s="161"/>
       <c r="M50" s="162">
@@ -3947,7 +3937,7 @@
     </row>
     <row r="52" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="108"/>
       <c r="D52" s="72">
@@ -3956,19 +3946,19 @@
       <c r="E52" s="72"/>
       <c r="F52" s="109"/>
       <c r="G52" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="I52" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="J52" s="109" t="s">
-        <v>69</v>
-      </c>
       <c r="K52" s="111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L52" s="150">
         <v>0.23</v>
@@ -3980,7 +3970,7 @@
     </row>
     <row r="53" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="113"/>
       <c r="D53" s="114">
@@ -3989,19 +3979,19 @@
       <c r="E53" s="114"/>
       <c r="F53" s="115"/>
       <c r="G53" s="115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H53" s="116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I53" s="115" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J53" s="115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K53" s="117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L53" s="159">
         <v>0.65</v>
@@ -4013,7 +4003,7 @@
     </row>
     <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="108"/>
       <c r="D54" s="72">
@@ -4022,16 +4012,16 @@
       <c r="E54" s="72"/>
       <c r="F54" s="109"/>
       <c r="G54" s="109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H54" s="110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I54" s="109" t="s">
         <v>31</v>
       </c>
       <c r="J54" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K54" s="111" t="s">
         <v>31</v>
@@ -4046,7 +4036,7 @@
     </row>
     <row r="55" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="113"/>
       <c r="D55" s="114">
@@ -4055,16 +4045,16 @@
       <c r="E55" s="114"/>
       <c r="F55" s="115"/>
       <c r="G55" s="115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55" s="116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I55" s="115" t="s">
         <v>31</v>
       </c>
       <c r="J55" s="115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K55" s="117" t="s">
         <v>31</v>
@@ -4079,7 +4069,7 @@
     </row>
     <row r="56" spans="2:13" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="99"/>
       <c r="D56" s="29">
@@ -4088,19 +4078,19 @@
       <c r="E56" s="29"/>
       <c r="F56" s="100"/>
       <c r="G56" s="100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H56" s="101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I56" s="100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J56" s="100" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K56" s="102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L56" s="145">
         <v>3.63</v>
@@ -4122,7 +4112,7 @@
         <v>31</v>
       </c>
       <c r="J57" s="120" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K57" s="121" t="s">
         <v>31</v>
@@ -4132,7 +4122,7 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="113"/>
       <c r="D58" s="114">
@@ -4141,16 +4131,16 @@
       <c r="E58" s="114"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="115" t="s">
         <v>72</v>
-      </c>
-      <c r="H58" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="I58" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="J58" s="115" t="s">
-        <v>73</v>
       </c>
       <c r="K58" s="117" t="s">
         <v>31</v>
@@ -4165,7 +4155,7 @@
     </row>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="108"/>
       <c r="D59" s="72">
@@ -4174,16 +4164,16 @@
       <c r="E59" s="72"/>
       <c r="F59" s="109"/>
       <c r="G59" s="109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" s="110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I59" s="109" t="s">
         <v>31</v>
       </c>
       <c r="J59" s="109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K59" s="111" t="s">
         <v>31</v>
@@ -4198,7 +4188,7 @@
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="113"/>
       <c r="D60" s="114">
@@ -4207,16 +4197,16 @@
       <c r="E60" s="114"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H60" s="116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I60" s="115" t="s">
         <v>31</v>
       </c>
       <c r="J60" s="115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K60" s="117" t="s">
         <v>31</v>
@@ -4231,7 +4221,7 @@
     </row>
     <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="108"/>
       <c r="D61" s="72">
@@ -4240,16 +4230,16 @@
       <c r="E61" s="72"/>
       <c r="F61" s="109"/>
       <c r="G61" s="109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H61" s="110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I61" s="109" t="s">
         <v>31</v>
       </c>
       <c r="J61" s="109" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K61" s="111" t="s">
         <v>31</v>
@@ -4264,7 +4254,7 @@
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" s="113"/>
       <c r="D62" s="114">
@@ -4273,18 +4263,18 @@
       <c r="E62" s="114"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H62" s="116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I62" s="115" t="s">
         <v>31</v>
       </c>
       <c r="J62" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="K62" s="215" t="s">
+        <v>152</v>
+      </c>
+      <c r="K62" s="179" t="s">
         <v>31</v>
       </c>
       <c r="L62" s="159">
@@ -4297,7 +4287,7 @@
     </row>
     <row r="63" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="108"/>
       <c r="D63" s="72">
@@ -4306,16 +4296,16 @@
       <c r="E63" s="72"/>
       <c r="F63" s="109"/>
       <c r="G63" s="109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H63" s="110" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I63" s="109" t="s">
         <v>31</v>
       </c>
       <c r="J63" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K63" s="111" t="s">
         <v>31</v>
@@ -4330,7 +4320,7 @@
     </row>
     <row r="64" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="113"/>
       <c r="D64" s="114">
@@ -4339,16 +4329,16 @@
       <c r="E64" s="114"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" s="115" t="s">
         <v>78</v>
-      </c>
-      <c r="H64" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="I64" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="J64" s="115" t="s">
-        <v>79</v>
       </c>
       <c r="K64" s="117" t="s">
         <v>31</v>
@@ -4363,7 +4353,7 @@
     </row>
     <row r="65" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="108"/>
       <c r="D65" s="72">
@@ -4372,16 +4362,16 @@
       <c r="E65" s="72"/>
       <c r="F65" s="109"/>
       <c r="G65" s="109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H65" s="110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I65" s="109" t="s">
         <v>31</v>
       </c>
       <c r="J65" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K65" s="111" t="s">
         <v>31</v>
@@ -4396,7 +4386,7 @@
     </row>
     <row r="66" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="113"/>
       <c r="D66" s="114">
@@ -4405,16 +4395,16 @@
       <c r="E66" s="114"/>
       <c r="F66" s="115"/>
       <c r="G66" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="H66" s="116" t="s">
+      <c r="I66" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66" s="115" t="s">
         <v>82</v>
-      </c>
-      <c r="I66" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="J66" s="115" t="s">
-        <v>83</v>
       </c>
       <c r="K66" s="117" t="s">
         <v>31</v>
@@ -4429,7 +4419,7 @@
     </row>
     <row r="67" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="108"/>
       <c r="D67" s="72">
@@ -4438,16 +4428,16 @@
       <c r="E67" s="72"/>
       <c r="F67" s="109"/>
       <c r="G67" s="109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H67" s="110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I67" s="109" t="s">
         <v>31</v>
       </c>
       <c r="J67" s="109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K67" s="111" t="s">
         <v>31</v>
@@ -4462,7 +4452,7 @@
     </row>
     <row r="68" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="116"/>
       <c r="D68" s="114">
@@ -4471,16 +4461,16 @@
       <c r="E68" s="114"/>
       <c r="F68" s="122"/>
       <c r="G68" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" s="122" t="s">
         <v>85</v>
-      </c>
-      <c r="H68" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="I68" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="J68" s="122" t="s">
-        <v>86</v>
       </c>
       <c r="K68" s="117" t="s">
         <v>31</v>
@@ -4495,7 +4485,7 @@
     </row>
     <row r="69" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="110"/>
       <c r="D69" s="72">
@@ -4504,16 +4494,16 @@
       <c r="E69" s="72"/>
       <c r="F69" s="74"/>
       <c r="G69" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="H69" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" s="74" t="s">
         <v>87</v>
-      </c>
-      <c r="H69" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="I69" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="J69" s="74" t="s">
-        <v>88</v>
       </c>
       <c r="K69" s="111" t="s">
         <v>31</v>
@@ -4528,7 +4518,7 @@
     </row>
     <row r="70" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="116"/>
       <c r="D70" s="114">
@@ -4537,16 +4527,16 @@
       <c r="E70" s="114"/>
       <c r="F70" s="122"/>
       <c r="G70" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" s="122" t="s">
         <v>89</v>
-      </c>
-      <c r="H70" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="I70" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="J70" s="122" t="s">
-        <v>90</v>
       </c>
       <c r="K70" s="117" t="s">
         <v>31</v>
@@ -4561,7 +4551,7 @@
     </row>
     <row r="71" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="110"/>
       <c r="D71" s="72">
@@ -4570,16 +4560,16 @@
       <c r="E71" s="72"/>
       <c r="F71" s="74"/>
       <c r="G71" s="74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H71" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="I71" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" s="74" t="s">
         <v>91</v>
-      </c>
-      <c r="I71" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="J71" s="74" t="s">
-        <v>92</v>
       </c>
       <c r="K71" s="111" t="s">
         <v>31</v>
@@ -4594,7 +4584,7 @@
     </row>
     <row r="72" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="123"/>
       <c r="D72" s="93">
@@ -4603,16 +4593,16 @@
       <c r="E72" s="93"/>
       <c r="F72" s="105"/>
       <c r="G72" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="H72" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" s="105" t="s">
         <v>93</v>
-      </c>
-      <c r="H72" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="J72" s="105" t="s">
-        <v>94</v>
       </c>
       <c r="K72" s="125" t="s">
         <v>31</v>
@@ -4630,7 +4620,7 @@
       <c r="C73" s="4"/>
       <c r="F73" s="1"/>
       <c r="K73" s="160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L73" s="161"/>
       <c r="M73" s="162">
@@ -4646,7 +4636,7 @@
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="K75" s="160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L75" s="161"/>
       <c r="M75" s="162">
@@ -5528,18 +5518,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:D39"/>
@@ -5547,13 +5532,18 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
